--- a/__src__/__tmp__/tmp_filtro_manzanas.xlsx
+++ b/__src__/__tmp__/tmp_filtro_manzanas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\Koening\HuffModel\huff-model-macro\__src__\__tmp__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEA834F1-B316-46D9-9F29-AF212D6356C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15A930DA-EA5D-4DB8-BB73-8E67F086C5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{32947F83-39D8-41F6-BCD6-095D63EB02DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{3D8E9EDD-0E58-41E7-AB2D-2630DB3D5E61}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,24 +34,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ID_MANZANAS</t>
   </si>
   <si>
-    <t>A15011702300052</t>
+    <t>A15011005700032C</t>
   </si>
   <si>
-    <t>A15011702300032A</t>
+    <t>A15011005700025M</t>
   </si>
   <si>
-    <t>A15011201200041</t>
+    <t>A15011005800042C</t>
   </si>
   <si>
-    <t>A15011201200011</t>
-  </si>
-  <si>
-    <t>A15011702300049</t>
+    <t>A15011005900012M</t>
   </si>
 </sst>
 </file>
@@ -402,12 +399,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F88545-8E80-40E5-99C1-8823DEC19A33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8405A85B-6730-4537-9D1F-E55B5CC97961}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A6"/>
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,11 +434,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/__src__/__tmp__/tmp_filtro_manzanas.xlsx
+++ b/__src__/__tmp__/tmp_filtro_manzanas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\Koening\HuffModel\huff-model-macro\__src__\__tmp__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15A930DA-EA5D-4DB8-BB73-8E67F086C5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5736488A-D800-4BDB-BDC8-4ACD320A6A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{3D8E9EDD-0E58-41E7-AB2D-2630DB3D5E61}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{02071E2C-6121-4526-8355-EF87019B306E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8405A85B-6730-4537-9D1F-E55B5CC97961}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBDCBB49-E6FB-4D9B-AABE-66C2A96F69BA}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:A5"/>
   <sheetViews>
